--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -45,36 +45,6 @@
   </si>
   <si>
     <t>DEL800110600</t>
-  </si>
-  <si>
-    <t>PCIU1857261</t>
-  </si>
-  <si>
-    <t>EVER UNION</t>
-  </si>
-  <si>
-    <t>178E</t>
-  </si>
-  <si>
-    <t>7031987128</t>
-  </si>
-  <si>
-    <t>PABVDEL800114000</t>
-  </si>
-  <si>
-    <t>BSIU2646949</t>
-  </si>
-  <si>
-    <t>KOTA PERDANA</t>
-  </si>
-  <si>
-    <t>007E</t>
-  </si>
-  <si>
-    <t>7031989592</t>
-  </si>
-  <si>
-    <t>DEL900000300</t>
   </si>
   <si>
     <t>PCIU2514462</t>
@@ -134,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -200,46 +170,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>DEL900003000</t>
+  </si>
+  <si>
+    <t>PCIU1438389</t>
+  </si>
+  <si>
+    <t>KOTA PERWIRA</t>
+  </si>
+  <si>
+    <t>0004E</t>
+  </si>
+  <si>
+    <t>7032005141</t>
+  </si>
+  <si>
+    <t>DEL900004900</t>
   </si>
 </sst>
 </file>
@@ -104,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -170,6 +185,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,36 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>PCIU2855920</t>
-  </si>
-  <si>
-    <t>COSCO ASIA</t>
-  </si>
-  <si>
-    <t>060E</t>
-  </si>
-  <si>
-    <t>7031977858</t>
-  </si>
-  <si>
-    <t>DEL800110600</t>
-  </si>
-  <si>
-    <t>PCIU2514462</t>
-  </si>
-  <si>
-    <t>APL SALALAH</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7031991192</t>
-  </si>
-  <si>
-    <t>DEL900003000</t>
-  </si>
-  <si>
     <t>PCIU1438389</t>
   </si>
   <si>
@@ -75,6 +45,21 @@
   </si>
   <si>
     <t>DEL900004900</t>
+  </si>
+  <si>
+    <t>PCIU1970956</t>
+  </si>
+  <si>
+    <t>COSCO ASIA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7032011028</t>
+  </si>
+  <si>
+    <t>DEL900009900</t>
   </si>
 </sst>
 </file>
@@ -119,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -185,26 +170,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>DEL900009900</t>
+  </si>
+  <si>
+    <t>PCIU1303758</t>
+  </si>
+  <si>
+    <t>COSCO AMERICA</t>
+  </si>
+  <si>
+    <t>057E</t>
+  </si>
+  <si>
+    <t>7032018745</t>
+  </si>
+  <si>
+    <t>PABVDEL900016400</t>
+  </si>
+  <si>
+    <t>SEGU1708293</t>
+  </si>
+  <si>
+    <t>7032018746</t>
+  </si>
+  <si>
+    <t>PABVDEL900019600</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -170,6 +194,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t>BOLNumber</t>
-  </si>
-  <si>
-    <t>PCIU1438389</t>
-  </si>
-  <si>
-    <t>KOTA PERWIRA</t>
-  </si>
-  <si>
-    <t>0004E</t>
-  </si>
-  <si>
-    <t>7032005141</t>
-  </si>
-  <si>
-    <t>DEL900004900</t>
   </si>
   <si>
     <t>PCIU1970956</t>
@@ -128,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -199,39 +184,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,6 +32,84 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>CCLU9927310</t>
+  </si>
+  <si>
+    <t>KOTA PERDANA</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>DJPDXA4008764</t>
+  </si>
+  <si>
+    <t>7180852519</t>
+  </si>
+  <si>
+    <t>6200787870</t>
+  </si>
+  <si>
+    <t>DFSU3511348</t>
+  </si>
+  <si>
+    <t>DJPDXA4008769</t>
+  </si>
+  <si>
+    <t>CXDU2208458</t>
+  </si>
+  <si>
+    <t>DJPDXA4008767</t>
+  </si>
+  <si>
+    <t>CXDU2189975</t>
+  </si>
+  <si>
+    <t>DJPDXA4008766</t>
+  </si>
+  <si>
+    <t>CXDU2107391</t>
+  </si>
+  <si>
+    <t>DJPDXA4008765</t>
+  </si>
+  <si>
+    <t>TEMU8024196</t>
+  </si>
+  <si>
+    <t>DJPDXA4008771</t>
+  </si>
+  <si>
+    <t>SEGU1708293</t>
+  </si>
+  <si>
+    <t>COSCO AMERICA</t>
+  </si>
+  <si>
+    <t>057E</t>
+  </si>
+  <si>
+    <t>7032018746</t>
+  </si>
+  <si>
+    <t>PABVDEL900019600</t>
+  </si>
+  <si>
+    <t>UETU9008410</t>
+  </si>
+  <si>
+    <t>DJPDXA4008772</t>
+  </si>
+  <si>
+    <t>PCIU1303758</t>
+  </si>
+  <si>
+    <t>7032018745</t>
+  </si>
+  <si>
+    <t>PABVDEL900016400</t>
+  </si>
+  <si>
     <t>PCIU1970956</t>
   </si>
   <si>
@@ -45,30 +123,6 @@
   </si>
   <si>
     <t>DEL900009900</t>
-  </si>
-  <si>
-    <t>PCIU1303758</t>
-  </si>
-  <si>
-    <t>COSCO AMERICA</t>
-  </si>
-  <si>
-    <t>057E</t>
-  </si>
-  <si>
-    <t>7032018745</t>
-  </si>
-  <si>
-    <t>PABVDEL900016400</t>
-  </si>
-  <si>
-    <t>SEGU1708293</t>
-  </si>
-  <si>
-    <t>7032018746</t>
-  </si>
-  <si>
-    <t>PABVDEL900019600</t>
   </si>
 </sst>
 </file>
@@ -113,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,50 +207,190 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -62,13 +62,19 @@
     <t>PABVDEL900024900</t>
   </si>
   <si>
-    <t>SEGU1708293</t>
-  </si>
-  <si>
-    <t>7032018746</t>
-  </si>
-  <si>
-    <t>PABVDEL900019600</t>
+    <t>PCIU1130708</t>
+  </si>
+  <si>
+    <t>COSCO TAICANG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7032029696</t>
+  </si>
+  <si>
+    <t>PABVDEL900028500</t>
   </si>
 </sst>
 </file>
@@ -184,19 +190,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,21 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>PCIU1303758</t>
-  </si>
-  <si>
-    <t>COSCO AMERICA</t>
-  </si>
-  <si>
-    <t>057E</t>
-  </si>
-  <si>
-    <t>7032018745</t>
-  </si>
-  <si>
-    <t>PABVDEL900016400</t>
-  </si>
-  <si>
     <t>PCIU1539609</t>
   </si>
   <si>
@@ -62,6 +47,24 @@
     <t>PABVDEL900024900</t>
   </si>
   <si>
+    <t>OOLU7656317</t>
+  </si>
+  <si>
+    <t>OOCL OAKLAND</t>
+  </si>
+  <si>
+    <t>00083</t>
+  </si>
+  <si>
+    <t>DJPDXA4140080</t>
+  </si>
+  <si>
+    <t>7180865530</t>
+  </si>
+  <si>
+    <t>2027739544</t>
+  </si>
+  <si>
     <t>PCIU1130708</t>
   </si>
   <si>
@@ -75,6 +78,21 @@
   </si>
   <si>
     <t>PABVDEL900028500</t>
+  </si>
+  <si>
+    <t>OOCU6837171</t>
+  </si>
+  <si>
+    <t>OOCL VANCOUVER</t>
+  </si>
+  <si>
+    <t>107E</t>
+  </si>
+  <si>
+    <t>7032033065</t>
+  </si>
+  <si>
+    <t>2027730379</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,30 +197,50 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,6 +32,24 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>CSLU1672208</t>
+  </si>
+  <si>
+    <t>OOCL VANCOUVER</t>
+  </si>
+  <si>
+    <t>00107</t>
+  </si>
+  <si>
+    <t>DJSEAA4160583</t>
+  </si>
+  <si>
+    <t>7032033840</t>
+  </si>
+  <si>
+    <t>6202950310</t>
+  </si>
+  <si>
     <t>PCIU1539609</t>
   </si>
   <si>
@@ -47,6 +65,21 @@
     <t>PABVDEL900024900</t>
   </si>
   <si>
+    <t>PCIU1130708</t>
+  </si>
+  <si>
+    <t>COSCO TAICANG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7032029696</t>
+  </si>
+  <si>
+    <t>PABVDEL900028500</t>
+  </si>
+  <si>
     <t>OOLU7656317</t>
   </si>
   <si>
@@ -65,25 +98,7 @@
     <t>2027739544</t>
   </si>
   <si>
-    <t>PCIU1130708</t>
-  </si>
-  <si>
-    <t>COSCO TAICANG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7032029696</t>
-  </si>
-  <si>
-    <t>PABVDEL900028500</t>
-  </si>
-  <si>
     <t>OOCU6837171</t>
-  </si>
-  <si>
-    <t>OOCL VANCOUVER</t>
   </si>
   <si>
     <t>107E</t>
@@ -137,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,24 +192,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -237,10 +252,30 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,15 +32,87 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>PCIU1539609</t>
+  </si>
+  <si>
+    <t>KOTA PURI</t>
+  </si>
+  <si>
+    <t>003E</t>
+  </si>
+  <si>
+    <t>7032025157</t>
+  </si>
+  <si>
+    <t>PABVDEL900024900</t>
+  </si>
+  <si>
+    <t>OOLU7656317</t>
+  </si>
+  <si>
+    <t>OOCL OAKLAND</t>
+  </si>
+  <si>
+    <t>00083</t>
+  </si>
+  <si>
+    <t>DJPDXA4140080</t>
+  </si>
+  <si>
+    <t>7180865530</t>
+  </si>
+  <si>
+    <t>2027739544</t>
+  </si>
+  <si>
+    <t>PCIU1130708</t>
+  </si>
+  <si>
+    <t>COSCO TAICANG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7032029696</t>
+  </si>
+  <si>
+    <t>PABVDEL900028500</t>
+  </si>
+  <si>
+    <t>OOCU6837171</t>
+  </si>
+  <si>
+    <t>OOCL VANCOUVER</t>
+  </si>
+  <si>
+    <t>107E</t>
+  </si>
+  <si>
+    <t>7032033065</t>
+  </si>
+  <si>
+    <t>2027730379</t>
+  </si>
+  <si>
+    <t>OOCU7978739</t>
+  </si>
+  <si>
+    <t>00107</t>
+  </si>
+  <si>
+    <t>DJSEAA4176308</t>
+  </si>
+  <si>
+    <t>7032035019</t>
+  </si>
+  <si>
+    <t>6194856010</t>
+  </si>
+  <si>
     <t>CSLU1672208</t>
   </si>
   <si>
-    <t>OOCL VANCOUVER</t>
-  </si>
-  <si>
-    <t>00107</t>
-  </si>
-  <si>
     <t>DJSEAA4160583</t>
   </si>
   <si>
@@ -50,64 +122,19 @@
     <t>6202950310</t>
   </si>
   <si>
-    <t>PCIU1539609</t>
-  </si>
-  <si>
-    <t>KOTA PURI</t>
-  </si>
-  <si>
-    <t>003E</t>
-  </si>
-  <si>
-    <t>7032025157</t>
-  </si>
-  <si>
-    <t>PABVDEL900024900</t>
-  </si>
-  <si>
-    <t>PCIU1130708</t>
-  </si>
-  <si>
-    <t>COSCO TAICANG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7032029696</t>
-  </si>
-  <si>
-    <t>PABVDEL900028500</t>
-  </si>
-  <si>
-    <t>OOLU7656317</t>
-  </si>
-  <si>
-    <t>OOCL OAKLAND</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>DJPDXA4140080</t>
-  </si>
-  <si>
-    <t>7180865530</t>
-  </si>
-  <si>
-    <t>2027739544</t>
-  </si>
-  <si>
-    <t>OOCU6837171</t>
-  </si>
-  <si>
-    <t>107E</t>
-  </si>
-  <si>
-    <t>7032033065</t>
-  </si>
-  <si>
-    <t>2027730379</t>
+    <t>DFSU2661852</t>
+  </si>
+  <si>
+    <t>KOTA PERDANA</t>
+  </si>
+  <si>
+    <t>009E</t>
+  </si>
+  <si>
+    <t>7032034615</t>
+  </si>
+  <si>
+    <t>DEL900035600</t>
   </si>
 </sst>
 </file>
@@ -152,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,24 +219,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -252,30 +279,70 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>6194856010</t>
+  </si>
+  <si>
+    <t>FCIU9976035</t>
+  </si>
+  <si>
+    <t>OOCL SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>7032040300</t>
+  </si>
+  <si>
+    <t>6194928720</t>
   </si>
   <si>
     <t>CSLU1672208</t>
@@ -179,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,39 +325,59 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,82 +32,19 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>PCIU1539609</t>
-  </si>
-  <si>
-    <t>KOTA PURI</t>
-  </si>
-  <si>
-    <t>003E</t>
-  </si>
-  <si>
-    <t>7032025157</t>
-  </si>
-  <si>
-    <t>PABVDEL900024900</t>
-  </si>
-  <si>
-    <t>OOLU7656317</t>
-  </si>
-  <si>
-    <t>OOCL OAKLAND</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>DJPDXA4140080</t>
-  </si>
-  <si>
-    <t>7180865530</t>
-  </si>
-  <si>
-    <t>2027739544</t>
-  </si>
-  <si>
-    <t>PCIU1130708</t>
-  </si>
-  <si>
-    <t>COSCO TAICANG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7032029696</t>
-  </si>
-  <si>
-    <t>PABVDEL900028500</t>
-  </si>
-  <si>
-    <t>OOCU6837171</t>
+    <t>OOLU7967577</t>
   </si>
   <si>
     <t>OOCL VANCOUVER</t>
   </si>
   <si>
-    <t>107E</t>
-  </si>
-  <si>
-    <t>7032033065</t>
-  </si>
-  <si>
-    <t>2027730379</t>
-  </si>
-  <si>
-    <t>OOCU7978739</t>
-  </si>
-  <si>
     <t>00107</t>
   </si>
   <si>
-    <t>DJSEAA4176308</t>
-  </si>
-  <si>
-    <t>7032035019</t>
-  </si>
-  <si>
-    <t>6194856010</t>
+    <t>7180867964</t>
+  </si>
+  <si>
+    <t>2106776290</t>
   </si>
   <si>
     <t>FCIU9976035</t>
@@ -125,18 +62,6 @@
     <t>6194928720</t>
   </si>
   <si>
-    <t>CSLU1672208</t>
-  </si>
-  <si>
-    <t>DJSEAA4160583</t>
-  </si>
-  <si>
-    <t>7032033840</t>
-  </si>
-  <si>
-    <t>6202950310</t>
-  </si>
-  <si>
     <t>DFSU2661852</t>
   </si>
   <si>
@@ -150,6 +75,48 @@
   </si>
   <si>
     <t>DEL900035600</t>
+  </si>
+  <si>
+    <t>OOLU9733990</t>
+  </si>
+  <si>
+    <t>7180867922</t>
+  </si>
+  <si>
+    <t>6194920280</t>
+  </si>
+  <si>
+    <t>OOLU1330200</t>
+  </si>
+  <si>
+    <t>00140</t>
+  </si>
+  <si>
+    <t>DJPDXA4228892</t>
+  </si>
+  <si>
+    <t>7180871549</t>
+  </si>
+  <si>
+    <t>2106826090</t>
+  </si>
+  <si>
+    <t>BSIU9509315</t>
+  </si>
+  <si>
+    <t>OOCL NEW YORK</t>
+  </si>
+  <si>
+    <t>00055</t>
+  </si>
+  <si>
+    <t>DJSEAA4222484</t>
+  </si>
+  <si>
+    <t>7032036909</t>
+  </si>
+  <si>
+    <t>050900441417</t>
   </si>
 </sst>
 </file>
@@ -194,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -254,130 +221,90 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,91 +32,97 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>OOLU7967577</t>
-  </si>
-  <si>
-    <t>OOCL VANCOUVER</t>
-  </si>
-  <si>
-    <t>00107</t>
-  </si>
-  <si>
-    <t>7180867964</t>
-  </si>
-  <si>
-    <t>2106776290</t>
-  </si>
-  <si>
-    <t>FCIU9976035</t>
-  </si>
-  <si>
-    <t>OOCL SAN FRANCISCO</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>7032040300</t>
-  </si>
-  <si>
-    <t>6194928720</t>
-  </si>
-  <si>
-    <t>DFSU2661852</t>
-  </si>
-  <si>
-    <t>KOTA PERDANA</t>
-  </si>
-  <si>
-    <t>009E</t>
-  </si>
-  <si>
-    <t>7032034615</t>
-  </si>
-  <si>
-    <t>DEL900035600</t>
-  </si>
-  <si>
-    <t>OOLU9733990</t>
-  </si>
-  <si>
-    <t>7180867922</t>
-  </si>
-  <si>
-    <t>6194920280</t>
-  </si>
-  <si>
-    <t>OOLU1330200</t>
-  </si>
-  <si>
-    <t>00140</t>
-  </si>
-  <si>
-    <t>DJPDXA4228892</t>
-  </si>
-  <si>
-    <t>7180871549</t>
-  </si>
-  <si>
-    <t>2106826090</t>
-  </si>
-  <si>
-    <t>BSIU9509315</t>
+    <t>PCIU1274372</t>
+  </si>
+  <si>
+    <t>CMA CGM HYDRA</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>7032044255</t>
+  </si>
+  <si>
+    <t>DEL900038900</t>
+  </si>
+  <si>
+    <t>CMAU8250438</t>
   </si>
   <si>
     <t>OOCL NEW YORK</t>
   </si>
   <si>
-    <t>00055</t>
-  </si>
-  <si>
-    <t>DJSEAA4222484</t>
-  </si>
-  <si>
-    <t>7032036909</t>
-  </si>
-  <si>
-    <t>050900441417</t>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>DJSEAA4266350</t>
+  </si>
+  <si>
+    <t>7032048689</t>
+  </si>
+  <si>
+    <t>CKL0118965A</t>
+  </si>
+  <si>
+    <t>DJSEAA4266388</t>
+  </si>
+  <si>
+    <t>7032048697</t>
+  </si>
+  <si>
+    <t>CKL0118965B</t>
+  </si>
+  <si>
+    <t>ECMU4698073</t>
+  </si>
+  <si>
+    <t>DJSEAA4266372</t>
+  </si>
+  <si>
+    <t>7032048696</t>
+  </si>
+  <si>
+    <t>CKL0118966B</t>
+  </si>
+  <si>
+    <t>DJSEAA4266367</t>
+  </si>
+  <si>
+    <t>7032048687</t>
+  </si>
+  <si>
+    <t>CKL0118966A</t>
+  </si>
+  <si>
+    <t>OOLU7361471</t>
+  </si>
+  <si>
+    <t>OOCL ANTWERP</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>DJPDXA4327921</t>
+  </si>
+  <si>
+    <t>7180881164</t>
+  </si>
+  <si>
+    <t>2027902933</t>
+  </si>
+  <si>
+    <t>TCLU3889991</t>
+  </si>
+  <si>
+    <t>DJSEAA4304287</t>
+  </si>
+  <si>
+    <t>7032045841</t>
+  </si>
+  <si>
+    <t>050900510541</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,44 +227,44 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -269,42 +275,62 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -32,6 +32,24 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>ECMU4698073</t>
+  </si>
+  <si>
+    <t>OOCL NEW YORK</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>DJSEAA4266372</t>
+  </si>
+  <si>
+    <t>7032048696</t>
+  </si>
+  <si>
+    <t>CKL0118966B</t>
+  </si>
+  <si>
     <t>PCIU1274372</t>
   </si>
   <si>
@@ -47,15 +65,18 @@
     <t>DEL900038900</t>
   </si>
   <si>
+    <t>DJSEAA4266367</t>
+  </si>
+  <si>
+    <t>7032048687</t>
+  </si>
+  <si>
+    <t>CKL0118966A</t>
+  </si>
+  <si>
     <t>CMAU8250438</t>
   </si>
   <si>
-    <t>OOCL NEW YORK</t>
-  </si>
-  <si>
-    <t>00035</t>
-  </si>
-  <si>
     <t>DJSEAA4266350</t>
   </si>
   <si>
@@ -65,6 +86,36 @@
     <t>CKL0118965A</t>
   </si>
   <si>
+    <t>OOLU7361471</t>
+  </si>
+  <si>
+    <t>OOCL ANTWERP</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>DJPDXA4327921</t>
+  </si>
+  <si>
+    <t>7180881164</t>
+  </si>
+  <si>
+    <t>2027902933</t>
+  </si>
+  <si>
+    <t>TCLU3889991</t>
+  </si>
+  <si>
+    <t>DJSEAA4304287</t>
+  </si>
+  <si>
+    <t>7032045841</t>
+  </si>
+  <si>
+    <t>050900510541</t>
+  </si>
+  <si>
     <t>DJSEAA4266388</t>
   </si>
   <si>
@@ -72,57 +123,6 @@
   </si>
   <si>
     <t>CKL0118965B</t>
-  </si>
-  <si>
-    <t>ECMU4698073</t>
-  </si>
-  <si>
-    <t>DJSEAA4266372</t>
-  </si>
-  <si>
-    <t>7032048696</t>
-  </si>
-  <si>
-    <t>CKL0118966B</t>
-  </si>
-  <si>
-    <t>DJSEAA4266367</t>
-  </si>
-  <si>
-    <t>7032048687</t>
-  </si>
-  <si>
-    <t>CKL0118966A</t>
-  </si>
-  <si>
-    <t>OOLU7361471</t>
-  </si>
-  <si>
-    <t>OOCL ANTWERP</t>
-  </si>
-  <si>
-    <t>00100</t>
-  </si>
-  <si>
-    <t>DJPDXA4327921</t>
-  </si>
-  <si>
-    <t>7180881164</t>
-  </si>
-  <si>
-    <t>2027902933</t>
-  </si>
-  <si>
-    <t>TCLU3889991</t>
-  </si>
-  <si>
-    <t>DJSEAA4304287</t>
-  </si>
-  <si>
-    <t>7032045841</t>
-  </si>
-  <si>
-    <t>050900510541</t>
   </si>
 </sst>
 </file>
@@ -207,24 +207,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -235,13 +235,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -258,10 +258,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -275,53 +275,53 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>

--- a/SeattleTerminal30/Test.xlsx
+++ b/SeattleTerminal30/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,15 +32,36 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>CMAU8250438</t>
+  </si>
+  <si>
+    <t>OOCL NEW YORK</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>DJSEAA4266350</t>
+  </si>
+  <si>
+    <t>7032048689</t>
+  </si>
+  <si>
+    <t>CKL0118965A</t>
+  </si>
+  <si>
+    <t>DJSEAA4266388</t>
+  </si>
+  <si>
+    <t>7032048697</t>
+  </si>
+  <si>
+    <t>CKL0118965B</t>
+  </si>
+  <si>
     <t>ECMU4698073</t>
   </si>
   <si>
-    <t>OOCL NEW YORK</t>
-  </si>
-  <si>
-    <t>00035</t>
-  </si>
-  <si>
     <t>DJSEAA4266372</t>
   </si>
   <si>
@@ -50,79 +71,250 @@
     <t>CKL0118966B</t>
   </si>
   <si>
-    <t>PCIU1274372</t>
-  </si>
-  <si>
-    <t>CMA CGM HYDRA</t>
+    <t>DJSEAA4266367</t>
+  </si>
+  <si>
+    <t>7032048687</t>
+  </si>
+  <si>
+    <t>CKL0118966A</t>
+  </si>
+  <si>
+    <t>FCIU9978362</t>
+  </si>
+  <si>
+    <t>OOCL VANCOUVER</t>
+  </si>
+  <si>
+    <t>00108</t>
+  </si>
+  <si>
+    <t>DJPDXA4401992</t>
+  </si>
+  <si>
+    <t>7180887236</t>
+  </si>
+  <si>
+    <t>6194974242</t>
+  </si>
+  <si>
+    <t>MAGU5498333</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>7032059111</t>
+  </si>
+  <si>
+    <t>050900558799</t>
+  </si>
+  <si>
+    <t>HMCU9176290</t>
+  </si>
+  <si>
+    <t>PCIU0117105</t>
+  </si>
+  <si>
+    <t>COSCO ASIA</t>
+  </si>
+  <si>
+    <t>063E</t>
+  </si>
+  <si>
+    <t>7032063254</t>
+  </si>
+  <si>
+    <t>PABVDEL900043600</t>
+  </si>
+  <si>
+    <t>TCLU7192860</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>7032046957</t>
+  </si>
+  <si>
+    <t>CMDUMOB0119428</t>
+  </si>
+  <si>
+    <t>OOLU6176268</t>
+  </si>
+  <si>
+    <t>7032063263</t>
+  </si>
+  <si>
+    <t>OOLU2622503750</t>
+  </si>
+  <si>
+    <t>TGSU2040256</t>
+  </si>
+  <si>
+    <t>APL DUBLIN</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>DJSEAA4401252</t>
+  </si>
+  <si>
+    <t>7032064629</t>
+  </si>
+  <si>
+    <t>QDGS096496</t>
+  </si>
+  <si>
+    <t>FCIU5111820</t>
+  </si>
+  <si>
+    <t>OOCL SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>00141</t>
+  </si>
+  <si>
+    <t>DJSEAA4409497</t>
+  </si>
+  <si>
+    <t>7032069055</t>
+  </si>
+  <si>
+    <t>6195003780</t>
+  </si>
+  <si>
+    <t>OOLU2839418</t>
+  </si>
+  <si>
+    <t>DJPDXA4407818</t>
+  </si>
+  <si>
+    <t>7180887371</t>
+  </si>
+  <si>
+    <t>2028013920</t>
+  </si>
+  <si>
+    <t>BSIU2504570</t>
+  </si>
+  <si>
+    <t>DJSEAA4413881</t>
+  </si>
+  <si>
+    <t>7032058947</t>
+  </si>
+  <si>
+    <t>050900576291</t>
+  </si>
+  <si>
+    <t>PCIU1915706</t>
+  </si>
+  <si>
+    <t>APL ENGLAND</t>
   </si>
   <si>
     <t>001</t>
   </si>
   <si>
-    <t>7032044255</t>
-  </si>
-  <si>
-    <t>DEL900038900</t>
-  </si>
-  <si>
-    <t>DJSEAA4266367</t>
-  </si>
-  <si>
-    <t>7032048687</t>
-  </si>
-  <si>
-    <t>CKL0118966A</t>
-  </si>
-  <si>
-    <t>CMAU8250438</t>
-  </si>
-  <si>
-    <t>DJSEAA4266350</t>
-  </si>
-  <si>
-    <t>7032048689</t>
-  </si>
-  <si>
-    <t>CKL0118965A</t>
-  </si>
-  <si>
-    <t>OOLU7361471</t>
-  </si>
-  <si>
-    <t>OOCL ANTWERP</t>
-  </si>
-  <si>
-    <t>00100</t>
-  </si>
-  <si>
-    <t>DJPDXA4327921</t>
-  </si>
-  <si>
-    <t>7180881164</t>
-  </si>
-  <si>
-    <t>2027902933</t>
-  </si>
-  <si>
-    <t>TCLU3889991</t>
-  </si>
-  <si>
-    <t>DJSEAA4304287</t>
-  </si>
-  <si>
-    <t>7032045841</t>
-  </si>
-  <si>
-    <t>050900510541</t>
-  </si>
-  <si>
-    <t>DJSEAA4266388</t>
-  </si>
-  <si>
-    <t>7032048697</t>
-  </si>
-  <si>
-    <t>CKL0118965B</t>
+    <t>7032065019</t>
+  </si>
+  <si>
+    <t>PABVDEL900048400</t>
+  </si>
+  <si>
+    <t>CXDU2187740</t>
+  </si>
+  <si>
+    <t>00056</t>
+  </si>
+  <si>
+    <t>DJSEAA4450188</t>
+  </si>
+  <si>
+    <t>7032075059</t>
+  </si>
+  <si>
+    <t>6195021464</t>
+  </si>
+  <si>
+    <t>CSNU7242048</t>
+  </si>
+  <si>
+    <t>DJSEAA4450161</t>
+  </si>
+  <si>
+    <t>7032075055</t>
+  </si>
+  <si>
+    <t>6195021463</t>
+  </si>
+  <si>
+    <t>OOLU6218635</t>
+  </si>
+  <si>
+    <t>141E</t>
+  </si>
+  <si>
+    <t>7032068457</t>
+  </si>
+  <si>
+    <t>OOLU2622508850</t>
+  </si>
+  <si>
+    <t>CCLU9941262</t>
+  </si>
+  <si>
+    <t>DJSEAA4450173</t>
+  </si>
+  <si>
+    <t>7032075057</t>
+  </si>
+  <si>
+    <t>6195021461</t>
+  </si>
+  <si>
+    <t>TLLU4408002</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>7032075180</t>
+  </si>
+  <si>
+    <t>6195021460</t>
+  </si>
+  <si>
+    <t>TEMU6095143</t>
+  </si>
+  <si>
+    <t>DJSEAA4450078</t>
+  </si>
+  <si>
+    <t>7032064694</t>
+  </si>
+  <si>
+    <t>050900602674</t>
+  </si>
+  <si>
+    <t>CBHU8769797</t>
+  </si>
+  <si>
+    <t>7032075179</t>
+  </si>
+  <si>
+    <t>6195002860</t>
+  </si>
+  <si>
+    <t>CMAU0913200</t>
+  </si>
+  <si>
+    <t>7032054037</t>
+  </si>
+  <si>
+    <t>CMDUMOB0119538</t>
   </si>
 </sst>
 </file>
@@ -167,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -215,27 +407,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -244,18 +436,18 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -264,73 +456,413 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
